--- a/Symphony/2021/SEPTEMBER/All Details/26.09.2021/MC Bank Statement September-2021.xlsx
+++ b/Symphony/2021/SEPTEMBER/All Details/26.09.2021/MC Bank Statement September-2021.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="253">
   <si>
     <t>Date</t>
   </si>
@@ -974,6 +974,9 @@
   </si>
   <si>
     <t>Sohel Telecom</t>
+  </si>
+  <si>
+    <t>Jamuna Bank (-)</t>
   </si>
 </sst>
 </file>
@@ -9751,11 +9754,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9770,6 +9768,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34423,8 +34426,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34656,7 +34659,7 @@
         <v>82</v>
       </c>
       <c r="E8" s="301">
-        <v>693471.65154761821</v>
+        <v>668471.65154761821</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="280"/>
@@ -34868,8 +34871,12 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="310"/>
-      <c r="B14" s="311"/>
+      <c r="A14" s="310" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="311">
+        <v>25000</v>
+      </c>
       <c r="C14" s="47"/>
       <c r="D14" s="147"/>
       <c r="E14" s="303"/>
@@ -34938,7 +34945,7 @@
       </c>
       <c r="B16" s="308">
         <f>B6+B7+B8-B10-B14-B11-B15</f>
-        <v>8405444.0066666678</v>
+        <v>8380444.0066666678</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="s">
@@ -34946,7 +34953,7 @@
       </c>
       <c r="E16" s="304">
         <f>E6+E7+E8+E11+E12+E13</f>
-        <v>8405444.0066666678</v>
+        <v>8380444.0066666678</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="129">
